--- a/src/static/reports/InfoProfesores.xlsx
+++ b/src/static/reports/InfoProfesores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,117 +468,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>professor1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>national1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>residence1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ingenieria</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>professor2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>national2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>residence2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>medicina</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>professor3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>national3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>residence3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>derecho</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/reports/InfoProfesores.xlsx
+++ b/src/static/reports/InfoProfesores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,635 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>professor1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>national1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>residence1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>professor2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>national2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>residence2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>professor3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>national3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>residence3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>professor4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>national4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>residence4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>professor5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>national5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>residence5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>professor6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>national6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>residence6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>professor7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>national7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>residence7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>professor8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>national8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>residence8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>professor9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>national9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>residence9</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>professor10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>national10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>residence10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>professor11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>national11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>residence11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>professor12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>national12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>residence12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>professor13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>national13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>residence13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>professor14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>national14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>residence14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>professor15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>national15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>residence15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>666</v>
+      </c>
+      <c r="C17" t="n">
+        <v>666</v>
+      </c>
+      <c r="D17" t="n">
+        <v>666</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Barbados</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>lh</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HOLA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>90</v>
+      </c>
+      <c r="C18" t="n">
+        <v>222</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
